--- a/public/static/template/import_khach_hang.xlsx
+++ b/public/static/template/import_khach_hang.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanhcong/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanhcong/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88858F47-1CE1-CF47-BCF5-30032D9102DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAA1DA3-F164-8943-A07C-6E1AF9F58836}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15760" xr2:uid="{EC5AED34-FE60-C04F-A99D-FEA9725203CD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{EC5AED34-FE60-C04F-A99D-FEA9725203CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Tên phụ huynh</t>
   </si>
@@ -36,25 +36,73 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Người phụ trách</t>
+  </si>
+  <si>
+    <t>Học sinh 1</t>
+  </si>
+  <si>
+    <t>Ngày sinh học sinh 1</t>
+  </si>
+  <si>
+    <t>Học sinh 2</t>
+  </si>
+  <si>
+    <t>Ngày sinh học sinh 2</t>
+  </si>
+  <si>
+    <t>Số điện thoại 2</t>
+  </si>
+  <si>
+    <t>Trung tâm checkin</t>
+  </si>
+  <si>
+    <t>Thời gian checkin</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Huế</t>
+  </si>
+  <si>
+    <t>0954112541</t>
+  </si>
+  <si>
+    <t>0954112542</t>
+  </si>
+  <si>
+    <t>demo@gmail.com</t>
+  </si>
+  <si>
+    <t>hà nội</t>
+  </si>
+  <si>
+    <t>ghi chú</t>
+  </si>
+  <si>
+    <t>C00001</t>
+  </si>
+  <si>
     <t>Nguyễn Văn A</t>
   </si>
   <si>
-    <t>0123456789</t>
-  </si>
-  <si>
-    <t>nguyenvana@gmail.com</t>
-  </si>
-  <si>
-    <t>Địa chỉ</t>
-  </si>
-  <si>
-    <t>Ghi chú</t>
-  </si>
-  <si>
-    <t>Hai Bà Trưng, Hà nội</t>
-  </si>
-  <si>
-    <t>ghi chú</t>
+    <t>2015-07-08</t>
+  </si>
+  <si>
+    <t>2016-08-16</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn B</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>2022-07-24</t>
   </si>
 </sst>
 </file>
@@ -78,15 +126,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -94,13 +148,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
@@ -418,22 +493,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539A9B38-91AC-204F-B7C8-DCD13B75F8BB}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="2" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="20.5" customWidth="1"/>
+    <col min="13" max="13" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,36 +523,85 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
+    <row r="2" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{F42E3866-076D-0F4D-A5BF-D08E791B6687}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{413A1DC1-E90E-B242-8B78-513C45E2C343}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>